--- a/SPPSApi/Doc/Template/FS1208_EDPlanImport.xlsx
+++ b/SPPSApi/Doc/Template/FS1208_EDPlanImport.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -80,6 +80,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -421,7 +422,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/SPPSApi/Doc/Template/FS1208_EDPlanImport.xlsx
+++ b/SPPSApi/Doc/Template/FS1208_EDPlanImport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>对象月</t>
   </si>
@@ -63,13 +63,79 @@
   <si>
     <t>看板订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>616010714000</t>
+  </si>
+  <si>
+    <t>2021-03</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>480B</t>
+  </si>
+  <si>
+    <t>52119F292900</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>260B</t>
+  </si>
+  <si>
+    <t>2021032201ZJ</t>
+  </si>
+  <si>
+    <t>2021032301ZJ</t>
+  </si>
+  <si>
+    <t>2021030601ZJ</t>
+  </si>
+  <si>
+    <t>2021031301ZJ</t>
+  </si>
+  <si>
+    <t>2021032001ZJ</t>
+  </si>
+  <si>
+    <t>2021032701ZJ</t>
+  </si>
+  <si>
+    <t>2021032201</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2021-03-06</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>2021-03-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +148,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -110,12 +184,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
@@ -427,63 +510,346 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="16" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>684</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>684</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>684</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
+        <v>684</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS1208_EDPlanImport.xlsx
+++ b/SPPSApi/Doc/Template/FS1208_EDPlanImport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>对象月</t>
   </si>
@@ -63,79 +63,13 @@
   <si>
     <t>看板订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>616010714000</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>480B</t>
-  </si>
-  <si>
-    <t>52119F292900</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>260B</t>
-  </si>
-  <si>
-    <t>2021032201ZJ</t>
-  </si>
-  <si>
-    <t>2021032301ZJ</t>
-  </si>
-  <si>
-    <t>2021030601ZJ</t>
-  </si>
-  <si>
-    <t>2021031301ZJ</t>
-  </si>
-  <si>
-    <t>2021032001ZJ</t>
-  </si>
-  <si>
-    <t>2021032701ZJ</t>
-  </si>
-  <si>
-    <t>2021032201</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2021-03-06</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>2021-03-13</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>2021-03-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,14 +82,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,9 +122,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -502,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
@@ -510,18 +433,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" style="4" customWidth="1"/>
     <col min="16" max="16" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,278 +499,6 @@
       </c>
       <c r="P1" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2">
-        <v>684</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>684</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2">
-        <v>684</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2">
-        <v>684</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
